--- a/resources/TestData/MyAccountPage.xlsx
+++ b/resources/TestData/MyAccountPage.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abinayavarshini.ram\git\RBT\RBT\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abinayavarshini.ram\Downloads\RBT-master (1)\RBT-master\RBT\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="addDelegate" sheetId="34" r:id="rId1"/>
     <sheet name="duplicateDelegate" sheetId="35" r:id="rId2"/>
     <sheet name="invalidDelegate" sheetId="36" r:id="rId3"/>
     <sheet name="updateAccountDetails" sheetId="37" r:id="rId4"/>
-    <sheet name="helpIconAboutLink" sheetId="38" r:id="rId5"/>
+    <sheet name="verifyFavroom" sheetId="39" r:id="rId5"/>
+    <sheet name="helpIconAboutLink" sheetId="38" r:id="rId6"/>
+    <sheet name="verifyFavduplicate" sheetId="40" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Test Data</t>
   </si>
@@ -112,6 +114,27 @@
   </si>
   <si>
     <t>EMSVersion</t>
+  </si>
+  <si>
+    <t>Eastern Time</t>
+  </si>
+  <si>
+    <t>abinayavarshini.ranaswami@turner.com</t>
+  </si>
+  <si>
+    <t>ranaswami, abinayavarshini</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>favrooms</t>
+  </si>
+  <si>
+    <t>TWC</t>
   </si>
 </sst>
 </file>
@@ -461,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -574,14 +597,14 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -625,7 +648,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -636,6 +673,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -722,4 +789,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/TestData/MyAccountPage.xlsx
+++ b/resources/TestData/MyAccountPage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="addDelegate" sheetId="34" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="verifyFavroom" sheetId="39" r:id="rId5"/>
     <sheet name="helpIconAboutLink" sheetId="38" r:id="rId6"/>
     <sheet name="verifyFavduplicate" sheetId="40" r:id="rId7"/>
+    <sheet name="verifyFavinvalid" sheetId="41" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Test Data</t>
   </si>
@@ -135,13 +136,16 @@
   </si>
   <si>
     <t>TWC</t>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +165,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -201,6 +218,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -795,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -819,4 +842,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>